--- a/srcs/shablons/UU_trixial_test_op.xlsx
+++ b/srcs/shablons/UU_trixial_test_op.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875EAD96-20B4-44A1-93A4-ECC0FBBEAE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C1480C-F391-4913-84AC-5FC2867AF5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,6 +1313,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1324,18 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2995,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M33" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62:V62"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="U11" sqref="U10:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3027,29 +3027,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="155"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
+      <c r="A1" s="159"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="155" t="s">
+      <c r="M1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
       <c r="X1" s="139">
         <f>X48</f>
         <v>390</v>
@@ -3096,29 +3096,29 @@
       <c r="BF1"/>
     </row>
     <row r="2" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="155" t="s">
+      <c r="M2" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
       <c r="X2" s="142">
         <f>Y48</f>
         <v>445</v>
@@ -3189,29 +3189,29 @@
       <c r="BF2"/>
     </row>
     <row r="3" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
       <c r="X3" s="83"/>
       <c r="Y3" s="138"/>
       <c r="Z3" s="60"/>
@@ -3346,29 +3346,29 @@
       <c r="BF4"/>
     </row>
     <row r="5" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="155" t="s">
+      <c r="M5" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="159"/>
       <c r="X5" s="66">
         <f>X4/2+X1</f>
         <v>417.5</v>
@@ -3432,29 +3432,29 @@
       <c r="BF5"/>
     </row>
     <row r="6" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="156" t="s">
+      <c r="M6" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
       <c r="X6" s="60"/>
       <c r="Y6" s="60"/>
       <c r="Z6" s="60"/>
@@ -3509,29 +3509,29 @@
       <c r="BF6" s="87"/>
     </row>
     <row r="7" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="155" t="s">
+      <c r="M7" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
       <c r="X7" s="60"/>
       <c r="Y7" s="60"/>
       <c r="Z7" s="60"/>
@@ -3661,30 +3661,30 @@
       <c r="BF8" s="87"/>
     </row>
     <row r="9" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="158"/>
       <c r="X9" s="60"/>
       <c r="Y9" s="60"/>
       <c r="Z9" s="60"/>
@@ -4196,8 +4196,8 @@
       <c r="AU15" s="67"/>
       <c r="AV15"/>
       <c r="AW15"/>
-      <c r="AX15" s="157"/>
-      <c r="AY15" s="157"/>
+      <c r="AX15" s="153"/>
+      <c r="AY15" s="153"/>
       <c r="AZ15"/>
       <c r="BA15"/>
       <c r="BB15"/>
@@ -4371,29 +4371,29 @@
       <c r="BF17"/>
     </row>
     <row r="18" spans="1:58" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="36"/>
-      <c r="M18" s="159" t="s">
+      <c r="M18" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
       <c r="X18" s="60"/>
       <c r="Y18" s="60"/>
       <c r="Z18" s="60"/>
@@ -4793,8 +4793,8 @@
       <c r="AU22" s="67"/>
       <c r="AV22"/>
       <c r="AW22"/>
-      <c r="AX22" s="157"/>
-      <c r="AY22" s="157"/>
+      <c r="AX22" s="153"/>
+      <c r="AY22" s="153"/>
       <c r="AZ22"/>
       <c r="BA22"/>
       <c r="BB22"/>
@@ -5137,17 +5137,17 @@
       <c r="J27" s="148"/>
       <c r="K27" s="148"/>
       <c r="L27" s="36"/>
-      <c r="M27" s="159" t="s">
+      <c r="M27" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="159"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
       <c r="X27" s="60"/>
       <c r="Y27" s="60"/>
       <c r="Z27" s="60"/>
@@ -5320,8 +5320,8 @@
       <c r="AU29" s="67"/>
       <c r="AV29"/>
       <c r="AW29"/>
-      <c r="AX29" s="157"/>
-      <c r="AY29" s="157"/>
+      <c r="AX29" s="153"/>
+      <c r="AY29" s="153"/>
       <c r="AZ29"/>
       <c r="BA29"/>
       <c r="BB29"/>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="P47" s="132">
         <f ca="1">N47-RANDBETWEEN(1, 5)/1000</f>
-        <v>0.38600000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="W47" s="10">
         <v>1</v>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="AR49">
         <f ca="1">-AR50-AR51</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="AR50">
         <f ca="1">RANDBETWEEN(-3,3)*0.01</f>
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:44" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="AR51">
         <f ca="1">RANDBETWEEN(-3,3)*0.01</f>
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="52" spans="1:44" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6650,66 +6650,66 @@
       <c r="U59" s="5"/>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A60" s="160"/>
-      <c r="B60" s="160"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="160"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="160"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
       <c r="L60" s="12"/>
-      <c r="M60" s="160" t="s">
+      <c r="M60" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="N60" s="160"/>
-      <c r="O60" s="160"/>
-      <c r="P60" s="160"/>
-      <c r="Q60" s="160"/>
-      <c r="R60" s="160"/>
-      <c r="S60" s="160"/>
-      <c r="T60" s="160"/>
-      <c r="U60" s="160"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="156"/>
+      <c r="R60" s="156"/>
+      <c r="S60" s="156"/>
+      <c r="T60" s="156"/>
+      <c r="U60" s="156"/>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A61" s="158"/>
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="158"/>
-      <c r="J61" s="158"/>
-      <c r="K61" s="158"/>
+      <c r="A61" s="154"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="154"/>
       <c r="L61" s="37"/>
-      <c r="M61" s="158" t="s">
+      <c r="M61" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="N61" s="158"/>
-      <c r="O61" s="158"/>
-      <c r="P61" s="158"/>
-      <c r="Q61" s="158"/>
-      <c r="R61" s="158"/>
-      <c r="S61" s="158"/>
-      <c r="T61" s="158"/>
-      <c r="U61" s="158"/>
+      <c r="N61" s="154"/>
+      <c r="O61" s="154"/>
+      <c r="P61" s="154"/>
+      <c r="Q61" s="154"/>
+      <c r="R61" s="154"/>
+      <c r="S61" s="154"/>
+      <c r="T61" s="154"/>
+      <c r="U61" s="154"/>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="153"/>
-      <c r="P62" s="153"/>
-      <c r="Q62" s="153"/>
-      <c r="R62" s="153"/>
-      <c r="S62" s="153"/>
-      <c r="T62" s="153"/>
-      <c r="U62" s="153"/>
-      <c r="V62" s="153"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
+      <c r="P62" s="157"/>
+      <c r="Q62" s="157"/>
+      <c r="R62" s="157"/>
+      <c r="S62" s="157"/>
+      <c r="T62" s="157"/>
+      <c r="U62" s="157"/>
+      <c r="V62" s="157"/>
     </row>
     <row r="63" spans="1:44" ht="28.5" x14ac:dyDescent="0.2">
       <c r="F63" s="45" t="s">
@@ -7025,16 +7025,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AX15:AY15"/>
-    <mergeCell ref="AX22:AY22"/>
-    <mergeCell ref="AX29:AY29"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="M27:U27"/>
-    <mergeCell ref="M60:U60"/>
     <mergeCell ref="M62:V62"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="M9:V9"/>
@@ -7050,6 +7040,16 @@
     <mergeCell ref="M5:U5"/>
     <mergeCell ref="M6:U6"/>
     <mergeCell ref="M7:U7"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AX29:AY29"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="M27:U27"/>
+    <mergeCell ref="M60:U60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToWidth="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
